--- a/data/trans_camb/P28A_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28A_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-19,64</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,87</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-27,98</t>
+          <t>-8,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-25,58</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-27,79</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,6</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,38</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-27,97</t>
+          <t>-7,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,27; -5,94</t>
+          <t>-12,47; -0,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,37; -7,44</t>
+          <t>-11,9; -0,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,95; -14,98</t>
+          <t>-13,56; -2,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -0,23</t>
+          <t>-6,49; 3,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,13; -14,56</t>
+          <t>-8,55; 0,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,18; -15,98</t>
+          <t>-10,82; -2,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,47; -7,89</t>
+          <t>-8,29; -0,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,84; -15,78</t>
+          <t>-8,88; -1,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-35,7; -19,26</t>
+          <t>-10,77; -3,76</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-55,52%</t>
+          <t>-63,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-59,01%</t>
+          <t>-59,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-79,09%</t>
+          <t>-74,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,34%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-69,16%</t>
+          <t>-45,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-75,15%</t>
+          <t>-73,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-45,83%</t>
+          <t>-42,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-64,54%</t>
+          <t>-52,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-77,21%</t>
+          <t>-73,76%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,6; -17,26</t>
+          <t>-87,71; -5,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,15; -23,85</t>
+          <t>-84,32; 16,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,15; -54,2</t>
+          <t>-94,68; -15,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,51; -0,76</t>
+          <t>-57,88; 70,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,92; -47,73</t>
+          <t>-76,43; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,71; -53,93</t>
+          <t>-91,25; -32,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,21; -23,81</t>
+          <t>-68,88; -1,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-76,03; -48,5</t>
+          <t>-74,57; -13,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-87,42; -61,16</t>
+          <t>-88,21; -43,57</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-22,13</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-23,66</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,44</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,8</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,06</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-19,22</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-22,51</t>
+          <t>-6,1</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 7,15</t>
+          <t>-5,57; 7,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,65; -10,38</t>
+          <t>-10,08; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,07; -11,38</t>
+          <t>-10,89; -0,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 1,43</t>
+          <t>-12,38; 0,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,44; -0,74</t>
+          <t>-12,41; 0,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,4; -8,23</t>
+          <t>-15,11; -2,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -0,26</t>
+          <t>-6,41; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,47; -8,63</t>
+          <t>-8,92; -0,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -13,53</t>
+          <t>-10,26; -2,52</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,21%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-74,3%</t>
+          <t>-58,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-79,44%</t>
+          <t>-69,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>-49,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,06%</t>
+          <t>-47,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-65,4%</t>
+          <t>-75,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-37,56%</t>
+          <t>-21,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-62,05%</t>
+          <t>-52,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-72,68%</t>
+          <t>-73,11%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 37,6</t>
+          <t>-54,0; 205,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-90,46; -41,73</t>
+          <t>-91,78; 45,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-93,11; -42,4</t>
+          <t>-100,0; 24,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 7,99</t>
+          <t>-83,36; 24,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,96; 2,27</t>
+          <t>-83,79; 30,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,57; -31,61</t>
+          <t>-95,05; -31,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,16; -0,46</t>
+          <t>-58,12; 62,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,05; -36,57</t>
+          <t>-77,83; -4,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,08; -52,33</t>
+          <t>-90,27; -36,17</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,98</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-3,21</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,87</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-4,17</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-3,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 23,4</t>
+          <t>-22,28; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 39,78</t>
+          <t>-22,28; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 0,0</t>
+          <t>-22,28; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 19,42</t>
+          <t>-16,0; 13,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 24,7</t>
+          <t>-16,13; 14,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 22,99</t>
+          <t>-17,56; 9,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 14,27</t>
+          <t>-12,76; 4,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 22,54</t>
+          <t>-10,81; 6,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 11,66</t>
+          <t>-13,31; 3,67</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-36,2%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,02%</t>
+          <t>-22,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>-29,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>-41,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>-23,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-31,64%</t>
+          <t>-47,61%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,3; 134,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 156,6</t>
+          <t>-84,61; 451,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,11; 151,98</t>
+          <t>-100,0; 550,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,66; 137,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,51; 187,77</t>
+          <t>-85,63; 256,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,35; 109,11</t>
+          <t>-100,0; 235,08</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-18,22</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-23,67</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-19,25</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-22,26</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-12,91</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-18,76</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-23,12</t>
+          <t>-6,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -1,14</t>
+          <t>-7,31; 0,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -8,45</t>
+          <t>-9,17; -1,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,63; -14,28</t>
+          <t>-10,11; -3,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,35; -4,34</t>
+          <t>-6,82; 0,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-27,04; -10,88</t>
+          <t>-7,8; -0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,59; -14,23</t>
+          <t>-9,98; -3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -5,79</t>
+          <t>-6,1; -0,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,46; -12,36</t>
+          <t>-7,26; -1,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -16,93</t>
+          <t>-9,0; -3,88</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,65%</t>
+          <t>-36,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-60,99%</t>
+          <t>-60,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-79,25%</t>
+          <t>-74,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,33%</t>
+          <t>-32,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-56,06%</t>
+          <t>-40,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,83%</t>
+          <t>-68,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-40,15%</t>
+          <t>-34,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-58,34%</t>
+          <t>-49,92%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-71,89%</t>
+          <t>-71,19%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,51; -4,32</t>
+          <t>-66,7; 11,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,43; -33,77</t>
+          <t>-81,23; -20,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-89,86; -60,77</t>
+          <t>-90,2; -38,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,54; -13,72</t>
+          <t>-60,12; 12,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-69,68; -36,47</t>
+          <t>-68,12; 0,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-77,97; -48,07</t>
+          <t>-85,61; -38,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,8; -20,15</t>
+          <t>-56,04; -2,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,56; -43,24</t>
+          <t>-68,07; -21,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,16; -59,48</t>
+          <t>-83,29; -49,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
